--- a/biology/Médecine/Lucite_(allergie)/Lucite_(allergie).xlsx
+++ b/biology/Médecine/Lucite_(allergie)/Lucite_(allergie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La lucite, appelée aussi actinite ou actinodermatose, est une photodermatose aigüe ou chronique provoquée par les UV A du soleil[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La lucite, appelée aussi actinite ou actinodermatose, est une photodermatose aigüe ou chronique provoquée par les UV A du soleil.
 Elle n’atteint pas moins de 10 % des adultes, en grande majorité les femmes (90 %) et apparaît généralement entre 15 et 20 ans. Certains traitements médicamenteux photosensibilisants peuvent accentuer la lucite, surtout les veinotoniques.[réf. souhaitée]
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Deux formes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Lucite estivale bénigne (lucite pure ou actinite solaire) : caractérisée par l’éruption de petites taches rouges légèrement saillantes ressemblant à de l’urticaire ou de toutes petites cloques associées à des  démangeaisons plus ou moins intenses (prurit) et se localisant sur les parties exposées au soleil (décolleté, épaules, bras, jambes sans oublier parfois le dos des pieds) à l'exception du visage[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Lucite estivale bénigne (lucite pure ou actinite solaire) : caractérisée par l’éruption de petites taches rouges légèrement saillantes ressemblant à de l’urticaire ou de toutes petites cloques associées à des  démangeaisons plus ou moins intenses (prurit) et se localisant sur les parties exposées au soleil (décolleté, épaules, bras, jambes sans oublier parfois le dos des pieds) à l'exception du visage,.
 Lucite polymorphe : réaction cutanée retardée (12 à 24 heures après l'exposition au soleil et récidivante (d'une année sur l'autre en s'aggravant), caractérisée par des lésions très variables.</t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Traitement préventif</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Limitation à l'exposition au soleil
 Application de produits antisolaires
@@ -575,7 +591,9 @@
           <t>Traitement local</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Antihistaminique
 Préparations ichtyolées adoucissantes et décongestionnantes
